--- a/biology/Zoologie/Heurtaultia_rossiorum/Heurtaultia_rossiorum.xlsx
+++ b/biology/Zoologie/Heurtaultia_rossiorum/Heurtaultia_rossiorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heurtaultia rossiorum, unique représentant du genre Heurtaultia, est une espèce fossile de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été découverte dans l'ambre des Charentes à Archingeay en Charente-Maritime en France.
-Elle date du Crétacé inférieur[1]. Précisément de l'Albien terminal, soit il y a environ 100 Ma (millions d'années)[2]. Ce sont les plus anciens représentants connus de la super-famille des Cheliferoidea.
+Elle date du Crétacé inférieur. Précisément de l'Albien terminal, soit il y a environ 100 Ma (millions d'années). Ce sont les plus anciens représentants connus de la super-famille des Cheliferoidea.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de l'holotype mesure 0,82 mm de long sur 0,53 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de l'holotype mesure 0,82 mm de long sur 0,53 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Marie-Noëlle et Jean-Marc Rossi[2].
-Ce genre est nommé en l'honneur de Jacqueline Heurtault[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Marie-Noëlle et Jean-Marc Rossi.
+Ce genre est nommé en l'honneur de Jacqueline Heurtault.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Judson, 2009 : Cheliferoid pseudoscorpions (Arachnida Chelonethi) from the Lower Cretaceous of France. Geodiversitas, vol. 31, no 1, p. 61-71 (texte intégral) (en).</t>
         </is>
